--- a/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/Unit.xlsx
+++ b/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/Unit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>HP</t>
+  </si>
+  <si>
+    <t>MaxMPBase</t>
   </si>
   <si>
     <t>MP</t>
@@ -1095,10 +1098,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1111,9 +1114,11 @@
     <col min="6" max="6" width="112.875" customWidth="1"/>
     <col min="7" max="7" width="16.875" customWidth="1"/>
     <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="16" max="16" width="13.875" customWidth="1"/>
+    <col min="18" max="18" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:18">
+    <row r="1" customFormat="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1142,8 +1147,9 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
     </row>
-    <row r="2" customFormat="1" spans="1:18">
+    <row r="2" customFormat="1" spans="1:19">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1196,8 +1202,11 @@
       <c r="R2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="S2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" customFormat="1" spans="1:18">
+    <row r="3" customFormat="1" spans="1:19">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1220,8 +1229,9 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
-    <row r="4" customFormat="1" spans="1:18">
+    <row r="4" customFormat="1" spans="1:19">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1264,10 +1274,13 @@
         <v>1001</v>
       </c>
       <c r="R4" s="5">
+        <v>10041</v>
+      </c>
+      <c r="S4" s="5">
         <v>1003</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:18">
+    <row r="5" customFormat="1" spans="1:19">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1322,8 +1335,11 @@
       <c r="R5" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="S5" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" customFormat="1" spans="2:18">
+    <row r="6" customFormat="1" spans="2:19">
       <c r="B6" s="3">
         <v>1001</v>
       </c>
@@ -1331,14 +1347,14 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,,G$4,G6,H$4,H6,I$4,I6,J$4,J6,K$4,K6,L$4,L6,M$4,M6,N$4,N6,O$4,O6,P$4,P6,Q$4,Q6,R$4,R6)</f>
-        <v>1010,56000,1011,29000,1012,-136000,1000,6000,1005,500,1006,100000,1007,1780,1008,68000,1009,0,10021,1000,1001,1000,1003,1000</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,,G$4,G6,H$4,H6,I$4,I6,J$4,J6,K$4,K6,L$4,L6,M$4,M6,N$4,N6,O$4,O6,P$4,P6,Q$4,Q6,R$4,R6,S$4,S6)</f>
+        <v>1010,56000,1011,29000,1012,-136000,1000,6000,1005,500,1006,100000,1007,1780,1008,68000,1009,0,10021,1000,1001,1000,10041,1000,1003,1000</v>
       </c>
       <c r="G6" s="3">
         <v>56000</v>
@@ -1376,8 +1392,11 @@
       <c r="R6" s="3">
         <v>1000</v>
       </c>
+      <c r="S6" s="3">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:19">
       <c r="B7" s="3">
         <v>1002</v>
       </c>
@@ -1385,14 +1404,14 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3" t="str">
-        <f t="shared" ref="F7:F18" si="0">_xlfn.TEXTJOIN(",",TRUE,,G$4,G7,H$4,H7,I$4,I7,J$4,J7,K$4,K7,L$4,L7,M$4,M7,N$4,N7,O$4,O7,P$4,P7,Q$4,Q7,R$4,R7)</f>
-        <v>1010,56000,1011,30000,1012,-138000,1000,0,1005,500,1006,0,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
+        <f t="shared" ref="F7:F18" si="0">_xlfn.TEXTJOIN(",",TRUE,,G$4,G7,H$4,H7,I$4,I7,J$4,J7,K$4,K7,L$4,L7,M$4,M7,N$4,N7,O$4,O7,P$4,P7,Q$4,Q7,R$4,R7,S$4,S7)</f>
+        <v>1010,56000,1011,30000,1012,-138000,1000,0,1005,500,1006,0,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="G7" s="3">
         <v>56000</v>
@@ -1430,8 +1449,11 @@
       <c r="R7" s="3">
         <v>100</v>
       </c>
+      <c r="S7" s="3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:19">
       <c r="B8" s="3">
         <v>1003</v>
       </c>
@@ -1439,14 +1461,14 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1010,58740,1011,29090,1012,-148001,1000,0,1005,500,1006,0,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
+        <v>1010,58740,1011,29090,1012,-148001,1000,0,1005,500,1006,0,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="G8" s="3">
         <v>58740</v>
@@ -1484,8 +1506,11 @@
       <c r="R8" s="3">
         <v>100</v>
       </c>
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:19">
       <c r="B9" s="3">
         <v>1004</v>
       </c>
@@ -1493,14 +1518,14 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1010,21600,1011,26800,1012,-58702,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
+        <v>1010,21600,1011,26800,1012,-58702,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="G9" s="3">
         <v>21600</v>
@@ -1538,8 +1563,11 @@
       <c r="R9" s="3">
         <v>100</v>
       </c>
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:19">
       <c r="B10" s="3">
         <v>1005</v>
       </c>
@@ -1547,14 +1575,14 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1010,56000,1011,25180,1012,-23633,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
+        <v>1010,56000,1011,25180,1012,-23633,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="G10" s="3">
         <v>56000</v>
@@ -1592,8 +1620,11 @@
       <c r="R10" s="3">
         <v>100</v>
       </c>
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:19">
       <c r="B11" s="3">
         <v>1006</v>
       </c>
@@ -1601,14 +1632,14 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1010,36310,1011,25180,1012,-23634,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
+        <v>1010,36310,1011,25180,1012,-23634,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="G11" s="3">
         <v>36310</v>
@@ -1646,8 +1677,11 @@
       <c r="R11" s="3">
         <v>100</v>
       </c>
+      <c r="S11" s="3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:19">
       <c r="B12" s="3">
         <v>1007</v>
       </c>
@@ -1655,14 +1689,14 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1010,67170,1011,25180,1012,-40495,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
+        <v>1010,67170,1011,25180,1012,-40495,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="G12" s="3">
         <v>67170</v>
@@ -1700,8 +1734,11 @@
       <c r="R12" s="3">
         <v>100</v>
       </c>
+      <c r="S12" s="3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:19">
       <c r="B13" s="3">
         <v>1008</v>
       </c>
@@ -1709,14 +1746,14 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1010,59600,1011,25800,1012,-87866,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
+        <v>1010,59600,1011,25800,1012,-87866,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="G13" s="3">
         <v>59600</v>
@@ -1754,8 +1791,11 @@
       <c r="R13" s="3">
         <v>100</v>
       </c>
+      <c r="S13" s="3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:19">
       <c r="B14" s="3">
         <v>1009</v>
       </c>
@@ -1763,14 +1803,14 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1010,58740,1011,28100,1012,-141407,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
+        <v>1010,58740,1011,28100,1012,-141407,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="G14" s="3">
         <v>58740</v>
@@ -1808,8 +1848,11 @@
       <c r="R14" s="3">
         <v>100</v>
       </c>
+      <c r="S14" s="3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:19">
       <c r="B15" s="3">
         <v>1010</v>
       </c>
@@ -1817,14 +1860,14 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1010,58740,1011,28100,1012,-130408,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
+        <v>1010,58740,1011,28100,1012,-130408,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="G15" s="3">
         <v>58740</v>
@@ -1862,8 +1905,11 @@
       <c r="R15" s="3">
         <v>100</v>
       </c>
+      <c r="S15" s="3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:19">
       <c r="B16" s="3">
         <v>1011</v>
       </c>
@@ -1871,14 +1917,14 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1010,67480,1011,28850,1012,-130409,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
+        <v>1010,67480,1011,28850,1012,-130409,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="G16" s="3">
         <v>67480</v>
@@ -1916,8 +1962,11 @@
       <c r="R16" s="3">
         <v>100</v>
       </c>
+      <c r="S16" s="3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:19">
       <c r="B17" s="3">
         <v>1012</v>
       </c>
@@ -1925,14 +1974,14 @@
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1010,67480,1011,27510,1012,-34791,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
+        <v>1010,67480,1011,27510,1012,-34791,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="G17" s="3">
         <v>67480</v>
@@ -1970,8 +2019,11 @@
       <c r="R17" s="3">
         <v>100</v>
       </c>
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:19">
       <c r="B18" s="3">
         <v>1013</v>
       </c>
@@ -1979,14 +2031,14 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>1010,67480,1011,25900,1012,-93811,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,1003,100</v>
+        <v>1010,67480,1011,25900,1012,-93811,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="G18" s="3">
         <v>67480</v>
@@ -2022,6 +2074,9 @@
         <v>100</v>
       </c>
       <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
         <v>100</v>
       </c>
     </row>

--- a/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/Unit.xlsx
+++ b/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/Unit.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,12 @@
     <t>Name</t>
   </si>
   <si>
+    <t>head_icon</t>
+  </si>
+  <si>
+    <t>class_type</t>
+  </si>
+  <si>
     <t>KV</t>
   </si>
   <si>
@@ -53,12 +59,18 @@
     <t>string</t>
   </si>
   <si>
+    <t>EClassType</t>
+  </si>
+  <si>
     <t>(array#sep=,),int</t>
   </si>
   <si>
     <t>##group</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
     <t>s</t>
   </si>
   <si>
@@ -71,6 +83,12 @@
     <t>描述</t>
   </si>
   <si>
+    <t>头像图片</t>
+  </si>
+  <si>
+    <t>职业</t>
+  </si>
+  <si>
     <t>出生X坐标</t>
   </si>
   <si>
@@ -116,22 +134,64 @@
     <t>主角</t>
   </si>
   <si>
+    <t>Portrait</t>
+  </si>
+  <si>
+    <t>法师</t>
+  </si>
+  <si>
     <t>TrainingDummy</t>
   </si>
   <si>
     <t>训练假人</t>
   </si>
   <si>
+    <t>UI-ChatIcon-Battlenet</t>
+  </si>
+  <si>
+    <t>死亡骑士</t>
+  </si>
+  <si>
+    <t>恶魔猎手</t>
+  </si>
+  <si>
     <t>Boar</t>
   </si>
   <si>
     <t>野猪</t>
   </si>
   <si>
+    <t>德鲁伊</t>
+  </si>
+  <si>
+    <t>猎人</t>
+  </si>
+  <si>
+    <t>武僧</t>
+  </si>
+  <si>
+    <t>圣骑士</t>
+  </si>
+  <si>
     <t>Bear</t>
   </si>
   <si>
     <t>熊</t>
+  </si>
+  <si>
+    <t>牧师</t>
+  </si>
+  <si>
+    <t>盗贼</t>
+  </si>
+  <si>
+    <t>萨满</t>
+  </si>
+  <si>
+    <t>术士</t>
+  </si>
+  <si>
+    <t>战士</t>
   </si>
 </sst>
 </file>
@@ -764,17 +824,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1098,10 +1161,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1110,15 +1173,15 @@
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="17.875" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="20.75" customWidth="1"/>
-    <col min="6" max="6" width="112.875" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="16" max="16" width="13.875" customWidth="1"/>
-    <col min="18" max="18" width="17.625" customWidth="1"/>
+    <col min="5" max="7" width="20.75" customWidth="1"/>
+    <col min="8" max="8" width="112.875" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="18" max="18" width="13.875" customWidth="1"/>
+    <col min="20" max="20" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:19">
+    <row r="1" customFormat="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1135,8 +1198,12 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1148,77 +1215,87 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
-    <row r="2" customFormat="1" spans="1:19">
+    <row r="2" customFormat="1" spans="1:21">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:19">
+    <row r="3" customFormat="1" spans="1:21">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1230,59 +1307,63 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
     </row>
-    <row r="4" customFormat="1" spans="1:19">
+    <row r="4" customFormat="1" spans="1:21">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="2">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="5">
         <v>1010</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="5">
         <v>1011</v>
       </c>
-      <c r="I4" s="2">
+      <c r="K4" s="5">
         <v>1012</v>
       </c>
-      <c r="J4" s="2">
+      <c r="L4" s="5">
         <v>1000</v>
       </c>
-      <c r="K4" s="5">
+      <c r="M4" s="6">
         <v>1005</v>
       </c>
-      <c r="L4" s="2">
+      <c r="N4" s="5">
         <v>1006</v>
       </c>
-      <c r="M4" s="5">
+      <c r="O4" s="6">
         <v>1007</v>
       </c>
-      <c r="N4" s="5">
+      <c r="P4" s="6">
         <v>1008</v>
       </c>
-      <c r="O4" s="5">
+      <c r="Q4" s="6">
         <v>1009</v>
       </c>
-      <c r="P4" s="5">
+      <c r="R4" s="6">
         <v>10021</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="S4" s="6">
         <v>1001</v>
       </c>
-      <c r="R4" s="5">
+      <c r="T4" s="6">
         <v>10041</v>
       </c>
-      <c r="S4" s="5">
+      <c r="U4" s="6">
         <v>1003</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:19">
+    <row r="5" customFormat="1" spans="1:21">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -1291,792 +1372,876 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="2:19">
-      <c r="B6" s="3">
+    <row r="6" customFormat="1" spans="2:21">
+      <c r="B6" s="2">
         <v>1001</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,,G$4,G6,H$4,H6,I$4,I6,J$4,J6,K$4,K6,L$4,L6,M$4,M6,N$4,N6,O$4,O6,P$4,P6,Q$4,Q6,R$4,R6,S$4,S6)</f>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,,I$4,I6,J$4,J6,K$4,K6,L$4,L6,M$4,M6,N$4,N6,O$4,O6,P$4,P6,Q$4,Q6,R$4,R6,S$4,S6,T$4,T6,U$4,U6)</f>
         <v>1010,56000,1011,29000,1012,-136000,1000,6000,1005,500,1006,100000,1007,1780,1008,68000,1009,0,10021,1000,1001,1000,10041,1000,1003,1000</v>
       </c>
-      <c r="G6" s="3">
+      <c r="I6" s="2">
         <v>56000</v>
       </c>
-      <c r="H6" s="3">
+      <c r="J6" s="2">
         <v>29000</v>
       </c>
-      <c r="I6" s="3">
+      <c r="K6" s="2">
         <v>-136000</v>
       </c>
-      <c r="J6" s="3">
+      <c r="L6" s="2">
         <v>6000</v>
       </c>
-      <c r="K6" s="3">
+      <c r="M6" s="2">
         <v>500</v>
       </c>
-      <c r="L6" s="3">
+      <c r="N6" s="2">
         <v>100000</v>
       </c>
-      <c r="M6" s="3">
+      <c r="O6" s="2">
         <v>1780</v>
       </c>
-      <c r="N6" s="3">
+      <c r="P6" s="2">
         <v>68000</v>
       </c>
-      <c r="O6" s="3">
+      <c r="Q6" s="2">
         <v>0</v>
       </c>
-      <c r="P6" s="3">
+      <c r="R6" s="2">
         <v>1000</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="S6" s="2">
         <v>1000</v>
       </c>
-      <c r="R6" s="3">
+      <c r="T6" s="2">
         <v>1000</v>
       </c>
-      <c r="S6" s="3">
+      <c r="U6" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
-      <c r="B7" s="3">
+    <row r="7" spans="2:21">
+      <c r="B7" s="2">
         <v>1002</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="3" t="str">
-        <f t="shared" ref="F7:F18" si="0">_xlfn.TEXTJOIN(",",TRUE,,G$4,G7,H$4,H7,I$4,I7,J$4,J7,K$4,K7,L$4,L7,M$4,M7,N$4,N7,O$4,O7,P$4,P7,Q$4,Q7,R$4,R7,S$4,S7)</f>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f t="shared" ref="H7:H18" si="0">_xlfn.TEXTJOIN(",",TRUE,,I$4,I7,J$4,J7,K$4,K7,L$4,L7,M$4,M7,N$4,N7,O$4,O7,P$4,P7,Q$4,Q7,R$4,R7,S$4,S7,T$4,T7,U$4,U7)</f>
         <v>1010,56000,1011,30000,1012,-138000,1000,0,1005,500,1006,0,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
-      <c r="G7" s="3">
+      <c r="I7" s="2">
         <v>56000</v>
       </c>
-      <c r="H7" s="3">
+      <c r="J7" s="2">
         <v>30000</v>
       </c>
-      <c r="I7" s="3">
+      <c r="K7" s="2">
         <v>-138000</v>
       </c>
-      <c r="J7" s="3">
+      <c r="L7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="3">
+      <c r="M7" s="2">
         <v>500</v>
       </c>
-      <c r="L7" s="3">
+      <c r="N7" s="2">
         <v>0</v>
       </c>
-      <c r="M7" s="3">
+      <c r="O7" s="2">
         <v>500</v>
       </c>
-      <c r="N7" s="3">
+      <c r="P7" s="2">
         <v>30000</v>
       </c>
-      <c r="O7" s="3">
+      <c r="Q7" s="2">
         <v>3</v>
       </c>
-      <c r="P7" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>100</v>
-      </c>
-      <c r="R7" s="3">
-        <v>100</v>
-      </c>
-      <c r="S7" s="3">
+      <c r="R7" s="2">
+        <v>100</v>
+      </c>
+      <c r="S7" s="2">
+        <v>100</v>
+      </c>
+      <c r="T7" s="2">
+        <v>100</v>
+      </c>
+      <c r="U7" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:19">
-      <c r="B8" s="3">
+    <row r="8" spans="2:21">
+      <c r="B8" s="2">
         <v>1003</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="3" t="str">
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1010,58740,1011,29090,1012,-148001,1000,0,1005,500,1006,0,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="2">
         <v>58740</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="2">
         <v>29090</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="2">
         <v>-148001</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="2">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="2">
         <v>0</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="2">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="2">
         <v>30000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="2">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
-      <c r="S8" s="3">
+      <c r="R8" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" s="2">
+        <v>100</v>
+      </c>
+      <c r="T8" s="2">
+        <v>100</v>
+      </c>
+      <c r="U8" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="2:19">
-      <c r="B9" s="3">
+    <row r="9" spans="2:21">
+      <c r="B9" s="2">
         <v>1004</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="3" t="str">
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1010,21600,1011,26800,1012,-58702,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="2">
         <v>21600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="2">
         <v>26800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="2">
         <v>-58702</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="2">
         <v>2000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="2">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="2">
         <v>10000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="2">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="2">
         <v>30000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="2">
         <v>3</v>
       </c>
-      <c r="P9" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>100</v>
-      </c>
-      <c r="R9" s="3">
-        <v>100</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="R9" s="2">
+        <v>100</v>
+      </c>
+      <c r="S9" s="2">
+        <v>100</v>
+      </c>
+      <c r="T9" s="2">
+        <v>100</v>
+      </c>
+      <c r="U9" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:19">
-      <c r="B10" s="3">
+    <row r="10" spans="2:21">
+      <c r="B10" s="2">
         <v>1005</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="3" t="str">
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1010,56000,1011,25180,1012,-23633,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="2">
         <v>56000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="2">
         <v>25180</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="2">
         <v>-23633</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="2">
         <v>2000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="2">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="2">
         <v>10000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="2">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="2">
         <v>30000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="2">
         <v>3</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="R10" s="2">
+        <v>100</v>
+      </c>
+      <c r="S10" s="2">
+        <v>100</v>
+      </c>
+      <c r="T10" s="2">
+        <v>100</v>
+      </c>
+      <c r="U10" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="2:19">
-      <c r="B11" s="3">
+    <row r="11" spans="2:21">
+      <c r="B11" s="2">
         <v>1006</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>2</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="3" t="str">
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1010,36310,1011,25180,1012,-23634,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
-      <c r="G11" s="3">
+      <c r="I11" s="2">
         <v>36310</v>
       </c>
-      <c r="H11" s="3">
+      <c r="J11" s="2">
         <v>25180</v>
       </c>
-      <c r="I11" s="3">
+      <c r="K11" s="2">
         <v>-23634</v>
       </c>
-      <c r="J11" s="3">
+      <c r="L11" s="2">
         <v>2000</v>
       </c>
-      <c r="K11" s="3">
+      <c r="M11" s="2">
         <v>500</v>
       </c>
-      <c r="L11" s="3">
+      <c r="N11" s="2">
         <v>10000</v>
       </c>
-      <c r="M11" s="3">
+      <c r="O11" s="2">
         <v>500</v>
       </c>
-      <c r="N11" s="3">
+      <c r="P11" s="2">
         <v>30000</v>
       </c>
-      <c r="O11" s="3">
+      <c r="Q11" s="2">
         <v>3</v>
       </c>
-      <c r="P11" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>100</v>
-      </c>
-      <c r="R11" s="3">
-        <v>100</v>
-      </c>
-      <c r="S11" s="3">
+      <c r="R11" s="2">
+        <v>100</v>
+      </c>
+      <c r="S11" s="2">
+        <v>100</v>
+      </c>
+      <c r="T11" s="2">
+        <v>100</v>
+      </c>
+      <c r="U11" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="2:19">
-      <c r="B12" s="3">
+    <row r="12" spans="2:21">
+      <c r="B12" s="2">
         <v>1007</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="3" t="str">
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1010,67170,1011,25180,1012,-40495,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="2">
         <v>67170</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="2">
         <v>25180</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="2">
         <v>-40495</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="2">
         <v>2000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="2">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="2">
         <v>10000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="2">
         <v>500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="2">
         <v>30000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="2">
         <v>3</v>
       </c>
-      <c r="P12" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>100</v>
-      </c>
-      <c r="R12" s="3">
-        <v>100</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="R12" s="2">
+        <v>100</v>
+      </c>
+      <c r="S12" s="2">
+        <v>100</v>
+      </c>
+      <c r="T12" s="2">
+        <v>100</v>
+      </c>
+      <c r="U12" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="2:19">
-      <c r="B13" s="3">
+    <row r="13" spans="2:21">
+      <c r="B13" s="2">
         <v>1008</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="3" t="str">
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1010,59600,1011,25800,1012,-87866,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
-      <c r="G13" s="3">
+      <c r="I13" s="2">
         <v>59600</v>
       </c>
-      <c r="H13" s="3">
+      <c r="J13" s="2">
         <v>25800</v>
       </c>
-      <c r="I13" s="3">
+      <c r="K13" s="2">
         <v>-87866</v>
       </c>
-      <c r="J13" s="3">
+      <c r="L13" s="2">
         <v>2000</v>
       </c>
-      <c r="K13" s="3">
+      <c r="M13" s="2">
         <v>500</v>
       </c>
-      <c r="L13" s="3">
+      <c r="N13" s="2">
         <v>10000</v>
       </c>
-      <c r="M13" s="3">
+      <c r="O13" s="2">
         <v>500</v>
       </c>
-      <c r="N13" s="3">
+      <c r="P13" s="2">
         <v>30000</v>
       </c>
-      <c r="O13" s="3">
+      <c r="Q13" s="2">
         <v>3</v>
       </c>
-      <c r="P13" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>100</v>
-      </c>
-      <c r="R13" s="3">
-        <v>100</v>
-      </c>
-      <c r="S13" s="3">
+      <c r="R13" s="2">
+        <v>100</v>
+      </c>
+      <c r="S13" s="2">
+        <v>100</v>
+      </c>
+      <c r="T13" s="2">
+        <v>100</v>
+      </c>
+      <c r="U13" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="2:19">
-      <c r="B14" s="3">
+    <row r="14" spans="2:21">
+      <c r="B14" s="2">
         <v>1009</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>2</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="3" t="str">
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1010,58740,1011,28100,1012,-141407,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="2">
         <v>58740</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="2">
         <v>28100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="2">
         <v>-141407</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="2">
         <v>2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="2">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="2">
         <v>10000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="2">
         <v>500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="2">
         <v>30000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="2">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>100</v>
-      </c>
-      <c r="R14" s="3">
-        <v>100</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="R14" s="2">
+        <v>100</v>
+      </c>
+      <c r="S14" s="2">
+        <v>100</v>
+      </c>
+      <c r="T14" s="2">
+        <v>100</v>
+      </c>
+      <c r="U14" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="2:19">
-      <c r="B15" s="3">
+    <row r="15" spans="2:21">
+      <c r="B15" s="2">
         <v>1010</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="3" t="str">
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1010,58740,1011,28100,1012,-130408,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="2">
         <v>58740</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="2">
         <v>28100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="2">
         <v>-130408</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="2">
         <v>2000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="2">
         <v>2000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="2">
         <v>10000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="2">
         <v>500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="2">
         <v>30000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="2">
         <v>3</v>
       </c>
-      <c r="P15" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>100</v>
-      </c>
-      <c r="R15" s="3">
-        <v>100</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="R15" s="2">
+        <v>100</v>
+      </c>
+      <c r="S15" s="2">
+        <v>100</v>
+      </c>
+      <c r="T15" s="2">
+        <v>100</v>
+      </c>
+      <c r="U15" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="2:19">
-      <c r="B16" s="3">
+    <row r="16" spans="2:21">
+      <c r="B16" s="2">
         <v>1011</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>2</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="3" t="str">
+      <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1010,67480,1011,28850,1012,-130409,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
-      <c r="G16" s="3">
+      <c r="I16" s="2">
         <v>67480</v>
       </c>
-      <c r="H16" s="3">
+      <c r="J16" s="2">
         <v>28850</v>
       </c>
-      <c r="I16" s="3">
+      <c r="K16" s="2">
         <v>-130409</v>
       </c>
-      <c r="J16" s="3">
+      <c r="L16" s="2">
         <v>2000</v>
       </c>
-      <c r="K16" s="3">
+      <c r="M16" s="2">
         <v>2000</v>
       </c>
-      <c r="L16" s="3">
+      <c r="N16" s="2">
         <v>10000</v>
       </c>
-      <c r="M16" s="3">
+      <c r="O16" s="2">
         <v>500</v>
       </c>
-      <c r="N16" s="3">
+      <c r="P16" s="2">
         <v>30000</v>
       </c>
-      <c r="O16" s="3">
+      <c r="Q16" s="2">
         <v>3</v>
       </c>
-      <c r="P16" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>100</v>
-      </c>
-      <c r="R16" s="3">
-        <v>100</v>
-      </c>
-      <c r="S16" s="3">
+      <c r="R16" s="2">
+        <v>100</v>
+      </c>
+      <c r="S16" s="2">
+        <v>100</v>
+      </c>
+      <c r="T16" s="2">
+        <v>100</v>
+      </c>
+      <c r="U16" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="2:19">
-      <c r="B17" s="3">
+    <row r="17" spans="2:21">
+      <c r="B17" s="2">
         <v>1012</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>2</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="3" t="str">
+      <c r="D17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1010,67480,1011,27510,1012,-34791,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="2">
         <v>67480</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="2">
         <v>27510</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="2">
         <v>-34791</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="2">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="2">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="2">
         <v>10000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="2">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="2">
         <v>30000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="2">
         <v>3</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="R17" s="2">
+        <v>100</v>
+      </c>
+      <c r="S17" s="2">
+        <v>100</v>
+      </c>
+      <c r="T17" s="2">
+        <v>100</v>
+      </c>
+      <c r="U17" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:19">
-      <c r="B18" s="3">
+    <row r="18" spans="2:21">
+      <c r="B18" s="2">
         <v>1013</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>2</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="3" t="str">
+      <c r="D18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1010,67480,1011,25900,1012,-93811,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="2">
         <v>67480</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="2">
         <v>25900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="2">
         <v>-93811</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="2">
         <v>2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="2">
         <v>2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="2">
         <v>10000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="2">
         <v>500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="2">
         <v>30000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="2">
         <v>3</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="R18" s="2">
+        <v>100</v>
+      </c>
+      <c r="S18" s="2">
+        <v>100</v>
+      </c>
+      <c r="T18" s="2">
+        <v>100</v>
+      </c>
+      <c r="U18" s="2">
         <v>100</v>
       </c>
     </row>

--- a/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/Unit.xlsx
+++ b/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/Unit.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="28695" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -197,11 +184,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -226,40 +213,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,6 +229,58 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -281,18 +295,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,8 +318,32 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,57 +351,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,187 +372,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,21 +563,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -603,11 +575,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,6 +605,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -642,189 +649,169 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -842,55 +829,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1161,27 +1151,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="7" width="20.75" customWidth="1"/>
-    <col min="8" max="8" width="112.875" customWidth="1"/>
-    <col min="9" max="9" width="16.875" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="18" max="18" width="13.875" customWidth="1"/>
-    <col min="20" max="20" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="12.5044247787611" customWidth="1"/>
+    <col min="2" max="2" width="15.8761061946903" customWidth="1"/>
+    <col min="3" max="3" width="7.30088495575221" customWidth="1"/>
+    <col min="4" max="4" width="16.6637168141593" customWidth="1"/>
+    <col min="5" max="5" width="9.76106194690266" customWidth="1"/>
+    <col min="6" max="6" width="20.7522123893805" customWidth="1"/>
+    <col min="7" max="7" width="13.8761061946903" customWidth="1"/>
+    <col min="8" max="8" width="112.87610619469" customWidth="1"/>
+    <col min="9" max="9" width="10.3008849557522" customWidth="1"/>
+    <col min="10" max="10" width="7.84070796460177" customWidth="1"/>
+    <col min="11" max="11" width="6.84955752212389" customWidth="1"/>
+    <col min="18" max="18" width="10.5575221238938" customWidth="1"/>
+    <col min="20" max="20" width="9.50442477876106" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:21">
+    <row r="1" customFormat="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1217,8 +1210,9 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
     </row>
-    <row r="2" customFormat="1" spans="1:21">
+    <row r="2" customFormat="1" spans="1:22">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1280,8 +1274,9 @@
       <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="V2" s="1"/>
     </row>
-    <row r="3" customFormat="1" spans="1:21">
+    <row r="3" customFormat="1" spans="1:22">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1309,8 +1304,9 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
     </row>
-    <row r="4" customFormat="1" spans="1:21">
+    <row r="4" customFormat="1" spans="1:22">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1360,8 +1356,9 @@
       <c r="U4" s="6">
         <v>1003</v>
       </c>
+      <c r="V4" s="6"/>
     </row>
-    <row r="5" customFormat="1" spans="1:21">
+    <row r="5" customFormat="1" spans="1:22">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1425,8 +1422,9 @@
       <c r="U5" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="V5" s="1"/>
     </row>
-    <row r="6" customFormat="1" spans="2:21">
+    <row r="6" customFormat="1" spans="2:22">
       <c r="B6" s="2">
         <v>1001</v>
       </c>
@@ -1447,49 +1445,48 @@
       </c>
       <c r="H6" s="2" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,,I$4,I6,J$4,J6,K$4,K6,L$4,L6,M$4,M6,N$4,N6,O$4,O6,P$4,P6,Q$4,Q6,R$4,R6,S$4,S6,T$4,T6,U$4,U6)</f>
-        <v>1010,56000,1011,29000,1012,-136000,1000,6000,1005,500,1006,100000,1007,1780,1008,68000,1009,0,10021,1000,1001,1000,10041,1000,1003,1000</v>
-      </c>
-      <c r="I6" s="2">
+        <v>1010,56000,1011,29000,1012,-136000,1000,6000,1005,500,1006,100000,1007,1780,1008,68000,1009,10021,1000,1001,1000,10041,1000,1003,1000</v>
+      </c>
+      <c r="I6" s="7">
         <v>56000</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="7">
         <v>29000</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="7">
         <v>-136000</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="7">
         <v>6000</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="7">
         <v>500</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="7">
         <v>100000</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="7">
         <v>1780</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="7">
         <v>68000</v>
       </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7">
         <v>1000</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="7">
         <v>1000</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="7">
         <v>1000</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="7">
         <v>1000</v>
       </c>
+      <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:22">
       <c r="B7" s="2">
         <v>1002</v>
       </c>
@@ -1510,49 +1507,48 @@
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" ref="H7:H18" si="0">_xlfn.TEXTJOIN(",",TRUE,,I$4,I7,J$4,J7,K$4,K7,L$4,L7,M$4,M7,N$4,N7,O$4,O7,P$4,P7,Q$4,Q7,R$4,R7,S$4,S7,T$4,T7,U$4,U7)</f>
-        <v>1010,56000,1011,30000,1012,-138000,1000,0,1005,500,1006,0,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
-      </c>
-      <c r="I7" s="2">
+        <v>1010,56000,1011,30000,1012,-138000,1000,0,1005,500,1006,0,1007,500,1008,30000,1009,10021,100,1001,100,10041,100,1003,100</v>
+      </c>
+      <c r="I7" s="7">
         <v>56000</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="7">
         <v>30000</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="7">
         <v>-138000</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="7">
         <v>0</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="7">
         <v>500</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="7">
         <v>0</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="7">
         <v>500</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="7">
         <v>30000</v>
       </c>
-      <c r="Q7" s="2">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2">
-        <v>100</v>
-      </c>
-      <c r="S7" s="2">
-        <v>100</v>
-      </c>
-      <c r="T7" s="2">
-        <v>100</v>
-      </c>
-      <c r="U7" s="2">
-        <v>100</v>
-      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7">
+        <v>100</v>
+      </c>
+      <c r="S7" s="7">
+        <v>100</v>
+      </c>
+      <c r="T7" s="7">
+        <v>100</v>
+      </c>
+      <c r="U7" s="7">
+        <v>100</v>
+      </c>
+      <c r="V7" s="7"/>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:22">
       <c r="B8" s="2">
         <v>1003</v>
       </c>
@@ -1573,49 +1569,48 @@
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1010,58740,1011,29090,1012,-148001,1000,0,1005,500,1006,0,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
-      </c>
-      <c r="I8" s="2">
+        <v>1010,58740,1011,29090,1012,-148001,1000,0,1005,500,1006,0,1007,500,1008,30000,1009,10021,100,1001,100,10041,100,1003,100</v>
+      </c>
+      <c r="I8" s="7">
         <v>58740</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="7">
         <v>29090</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="7">
         <v>-148001</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="7">
         <v>0</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="7">
         <v>500</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="7">
         <v>0</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="7">
         <v>500</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="7">
         <v>30000</v>
       </c>
-      <c r="Q8" s="2">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2">
-        <v>100</v>
-      </c>
-      <c r="S8" s="2">
-        <v>100</v>
-      </c>
-      <c r="T8" s="2">
-        <v>100</v>
-      </c>
-      <c r="U8" s="2">
-        <v>100</v>
-      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7">
+        <v>100</v>
+      </c>
+      <c r="S8" s="7">
+        <v>100</v>
+      </c>
+      <c r="T8" s="7">
+        <v>100</v>
+      </c>
+      <c r="U8" s="7">
+        <v>100</v>
+      </c>
+      <c r="V8" s="7"/>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:22">
       <c r="B9" s="2">
         <v>1004</v>
       </c>
@@ -1638,47 +1633,48 @@
         <f t="shared" si="0"/>
         <v>1010,21600,1011,26800,1012,-58702,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="7">
         <v>21600</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="7">
         <v>26800</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="7">
         <v>-58702</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="7">
         <v>2000</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="7">
         <v>500</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="7">
         <v>10000</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="7">
         <v>500</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="7">
         <v>30000</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="7">
         <v>3</v>
       </c>
-      <c r="R9" s="2">
-        <v>100</v>
-      </c>
-      <c r="S9" s="2">
-        <v>100</v>
-      </c>
-      <c r="T9" s="2">
-        <v>100</v>
-      </c>
-      <c r="U9" s="2">
-        <v>100</v>
-      </c>
+      <c r="R9" s="7">
+        <v>100</v>
+      </c>
+      <c r="S9" s="7">
+        <v>100</v>
+      </c>
+      <c r="T9" s="7">
+        <v>100</v>
+      </c>
+      <c r="U9" s="7">
+        <v>100</v>
+      </c>
+      <c r="V9" s="7"/>
     </row>
-    <row r="10" spans="2:21">
+    <row r="10" spans="2:22">
       <c r="B10" s="2">
         <v>1005</v>
       </c>
@@ -1701,47 +1697,48 @@
         <f t="shared" si="0"/>
         <v>1010,56000,1011,25180,1012,-23633,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="7">
         <v>56000</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="7">
         <v>25180</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="7">
         <v>-23633</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="7">
         <v>2000</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="7">
         <v>500</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="7">
         <v>10000</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="7">
         <v>500</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="7">
         <v>30000</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="7">
         <v>3</v>
       </c>
-      <c r="R10" s="2">
-        <v>100</v>
-      </c>
-      <c r="S10" s="2">
-        <v>100</v>
-      </c>
-      <c r="T10" s="2">
-        <v>100</v>
-      </c>
-      <c r="U10" s="2">
-        <v>100</v>
-      </c>
+      <c r="R10" s="7">
+        <v>100</v>
+      </c>
+      <c r="S10" s="7">
+        <v>100</v>
+      </c>
+      <c r="T10" s="7">
+        <v>100</v>
+      </c>
+      <c r="U10" s="7">
+        <v>100</v>
+      </c>
+      <c r="V10" s="7"/>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:22">
       <c r="B11" s="2">
         <v>1006</v>
       </c>
@@ -1764,47 +1761,48 @@
         <f t="shared" si="0"/>
         <v>1010,36310,1011,25180,1012,-23634,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="7">
         <v>36310</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="7">
         <v>25180</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="7">
         <v>-23634</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="7">
         <v>2000</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="7">
         <v>500</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="7">
         <v>10000</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="7">
         <v>500</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="7">
         <v>30000</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="7">
         <v>3</v>
       </c>
-      <c r="R11" s="2">
-        <v>100</v>
-      </c>
-      <c r="S11" s="2">
-        <v>100</v>
-      </c>
-      <c r="T11" s="2">
-        <v>100</v>
-      </c>
-      <c r="U11" s="2">
-        <v>100</v>
-      </c>
+      <c r="R11" s="7">
+        <v>100</v>
+      </c>
+      <c r="S11" s="7">
+        <v>100</v>
+      </c>
+      <c r="T11" s="7">
+        <v>100</v>
+      </c>
+      <c r="U11" s="7">
+        <v>100</v>
+      </c>
+      <c r="V11" s="7"/>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:22">
       <c r="B12" s="2">
         <v>1007</v>
       </c>
@@ -1827,47 +1825,48 @@
         <f t="shared" si="0"/>
         <v>1010,67170,1011,25180,1012,-40495,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="7">
         <v>67170</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="7">
         <v>25180</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="7">
         <v>-40495</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="7">
         <v>2000</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="7">
         <v>500</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="7">
         <v>10000</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="7">
         <v>500</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="7">
         <v>30000</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="7">
         <v>3</v>
       </c>
-      <c r="R12" s="2">
-        <v>100</v>
-      </c>
-      <c r="S12" s="2">
-        <v>100</v>
-      </c>
-      <c r="T12" s="2">
-        <v>100</v>
-      </c>
-      <c r="U12" s="2">
-        <v>100</v>
-      </c>
+      <c r="R12" s="7">
+        <v>100</v>
+      </c>
+      <c r="S12" s="7">
+        <v>100</v>
+      </c>
+      <c r="T12" s="7">
+        <v>100</v>
+      </c>
+      <c r="U12" s="7">
+        <v>100</v>
+      </c>
+      <c r="V12" s="7"/>
     </row>
-    <row r="13" spans="2:21">
+    <row r="13" spans="2:22">
       <c r="B13" s="2">
         <v>1008</v>
       </c>
@@ -1890,47 +1889,48 @@
         <f t="shared" si="0"/>
         <v>1010,59600,1011,25800,1012,-87866,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="7">
         <v>59600</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="7">
         <v>25800</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="7">
         <v>-87866</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="7">
         <v>2000</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="7">
         <v>500</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="7">
         <v>10000</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="7">
         <v>500</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="7">
         <v>30000</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="7">
         <v>3</v>
       </c>
-      <c r="R13" s="2">
-        <v>100</v>
-      </c>
-      <c r="S13" s="2">
-        <v>100</v>
-      </c>
-      <c r="T13" s="2">
-        <v>100</v>
-      </c>
-      <c r="U13" s="2">
-        <v>100</v>
-      </c>
+      <c r="R13" s="7">
+        <v>100</v>
+      </c>
+      <c r="S13" s="7">
+        <v>100</v>
+      </c>
+      <c r="T13" s="7">
+        <v>100</v>
+      </c>
+      <c r="U13" s="7">
+        <v>100</v>
+      </c>
+      <c r="V13" s="7"/>
     </row>
-    <row r="14" spans="2:21">
+    <row r="14" spans="2:22">
       <c r="B14" s="2">
         <v>1009</v>
       </c>
@@ -1953,47 +1953,48 @@
         <f t="shared" si="0"/>
         <v>1010,58740,1011,28100,1012,-141407,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="7">
         <v>58740</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="7">
         <v>28100</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="7">
         <v>-141407</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="7">
         <v>2000</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="7">
         <v>2000</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="7">
         <v>10000</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="7">
         <v>500</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="7">
         <v>30000</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="7">
         <v>3</v>
       </c>
-      <c r="R14" s="2">
-        <v>100</v>
-      </c>
-      <c r="S14" s="2">
-        <v>100</v>
-      </c>
-      <c r="T14" s="2">
-        <v>100</v>
-      </c>
-      <c r="U14" s="2">
-        <v>100</v>
-      </c>
+      <c r="R14" s="7">
+        <v>100</v>
+      </c>
+      <c r="S14" s="7">
+        <v>100</v>
+      </c>
+      <c r="T14" s="7">
+        <v>100</v>
+      </c>
+      <c r="U14" s="7">
+        <v>100</v>
+      </c>
+      <c r="V14" s="7"/>
     </row>
-    <row r="15" spans="2:21">
+    <row r="15" spans="2:22">
       <c r="B15" s="2">
         <v>1010</v>
       </c>
@@ -2016,47 +2017,48 @@
         <f t="shared" si="0"/>
         <v>1010,58740,1011,28100,1012,-130408,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="7">
         <v>58740</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="7">
         <v>28100</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="7">
         <v>-130408</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="7">
         <v>2000</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="7">
         <v>2000</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="7">
         <v>10000</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="7">
         <v>500</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="7">
         <v>30000</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="7">
         <v>3</v>
       </c>
-      <c r="R15" s="2">
-        <v>100</v>
-      </c>
-      <c r="S15" s="2">
-        <v>100</v>
-      </c>
-      <c r="T15" s="2">
-        <v>100</v>
-      </c>
-      <c r="U15" s="2">
-        <v>100</v>
-      </c>
+      <c r="R15" s="7">
+        <v>100</v>
+      </c>
+      <c r="S15" s="7">
+        <v>100</v>
+      </c>
+      <c r="T15" s="7">
+        <v>100</v>
+      </c>
+      <c r="U15" s="7">
+        <v>100</v>
+      </c>
+      <c r="V15" s="7"/>
     </row>
-    <row r="16" spans="2:21">
+    <row r="16" spans="2:22">
       <c r="B16" s="2">
         <v>1011</v>
       </c>
@@ -2079,47 +2081,48 @@
         <f t="shared" si="0"/>
         <v>1010,67480,1011,28850,1012,-130409,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="7">
         <v>67480</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="7">
         <v>28850</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="7">
         <v>-130409</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="7">
         <v>2000</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="7">
         <v>2000</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="7">
         <v>10000</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="7">
         <v>500</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="7">
         <v>30000</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="7">
         <v>3</v>
       </c>
-      <c r="R16" s="2">
-        <v>100</v>
-      </c>
-      <c r="S16" s="2">
-        <v>100</v>
-      </c>
-      <c r="T16" s="2">
-        <v>100</v>
-      </c>
-      <c r="U16" s="2">
-        <v>100</v>
-      </c>
+      <c r="R16" s="7">
+        <v>100</v>
+      </c>
+      <c r="S16" s="7">
+        <v>100</v>
+      </c>
+      <c r="T16" s="7">
+        <v>100</v>
+      </c>
+      <c r="U16" s="7">
+        <v>100</v>
+      </c>
+      <c r="V16" s="7"/>
     </row>
-    <row r="17" spans="2:21">
+    <row r="17" spans="2:22">
       <c r="B17" s="2">
         <v>1012</v>
       </c>
@@ -2142,47 +2145,48 @@
         <f t="shared" si="0"/>
         <v>1010,67480,1011,27510,1012,-34791,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="7">
         <v>67480</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="7">
         <v>27510</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="7">
         <v>-34791</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="7">
         <v>2000</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="7">
         <v>2000</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="7">
         <v>10000</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="7">
         <v>500</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="7">
         <v>30000</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="7">
         <v>3</v>
       </c>
-      <c r="R17" s="2">
-        <v>100</v>
-      </c>
-      <c r="S17" s="2">
-        <v>100</v>
-      </c>
-      <c r="T17" s="2">
-        <v>100</v>
-      </c>
-      <c r="U17" s="2">
-        <v>100</v>
-      </c>
+      <c r="R17" s="7">
+        <v>100</v>
+      </c>
+      <c r="S17" s="7">
+        <v>100</v>
+      </c>
+      <c r="T17" s="7">
+        <v>100</v>
+      </c>
+      <c r="U17" s="7">
+        <v>100</v>
+      </c>
+      <c r="V17" s="7"/>
     </row>
-    <row r="18" spans="2:21">
+    <row r="18" spans="2:22">
       <c r="B18" s="2">
         <v>1013</v>
       </c>
@@ -2205,45 +2209,46 @@
         <f t="shared" si="0"/>
         <v>1010,67480,1011,25900,1012,-93811,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="7">
         <v>67480</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="7">
         <v>25900</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="7">
         <v>-93811</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="7">
         <v>2000</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="7">
         <v>2000</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="7">
         <v>10000</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="7">
         <v>500</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="7">
         <v>30000</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="7">
         <v>3</v>
       </c>
-      <c r="R18" s="2">
-        <v>100</v>
-      </c>
-      <c r="S18" s="2">
-        <v>100</v>
-      </c>
-      <c r="T18" s="2">
-        <v>100</v>
-      </c>
-      <c r="U18" s="2">
-        <v>100</v>
-      </c>
+      <c r="R18" s="7">
+        <v>100</v>
+      </c>
+      <c r="S18" s="7">
+        <v>100</v>
+      </c>
+      <c r="T18" s="7">
+        <v>100</v>
+      </c>
+      <c r="U18" s="7">
+        <v>100</v>
+      </c>
+      <c r="V18" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/Unit.xlsx
+++ b/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/Unit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>法师</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>TrainingDummy</t>
@@ -186,10 +189,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -228,62 +231,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,8 +253,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -311,7 +286,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,22 +323,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -356,6 +330,35 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -378,31 +381,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,145 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,6 +566,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -591,27 +605,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +638,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -648,31 +666,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,10 +1154,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
@@ -1174,7 +1177,7 @@
     <col min="20" max="20" width="9.50442477876106" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:22">
+    <row r="1" customFormat="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1210,9 +1213,8 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
     </row>
-    <row r="2" customFormat="1" spans="1:22">
+    <row r="2" customFormat="1" spans="1:21">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1274,9 +1276,8 @@
       <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="1"/>
     </row>
-    <row r="3" customFormat="1" spans="1:22">
+    <row r="3" customFormat="1" spans="1:21">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1304,9 +1305,8 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
     </row>
-    <row r="4" customFormat="1" spans="1:22">
+    <row r="4" customFormat="1" spans="1:21">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1356,9 +1356,8 @@
       <c r="U4" s="6">
         <v>1003</v>
       </c>
-      <c r="V4" s="6"/>
     </row>
-    <row r="5" customFormat="1" spans="1:22">
+    <row r="5" customFormat="1" spans="1:21">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1422,9 +1421,8 @@
       <c r="U5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="1"/>
     </row>
-    <row r="6" customFormat="1" spans="2:22">
+    <row r="6" customFormat="1" spans="2:21">
       <c r="B6" s="2">
         <v>1001</v>
       </c>
@@ -1445,7 +1443,7 @@
       </c>
       <c r="H6" s="2" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,,I$4,I6,J$4,J6,K$4,K6,L$4,L6,M$4,M6,N$4,N6,O$4,O6,P$4,P6,Q$4,Q6,R$4,R6,S$4,S6,T$4,T6,U$4,U6)</f>
-        <v>1010,56000,1011,29000,1012,-136000,1000,6000,1005,500,1006,100000,1007,1780,1008,68000,1009,10021,1000,1001,1000,10041,1000,1003,1000</v>
+        <v>1010,56000,1011,29000,1012,-136000,1000,6000,1005,500,1006,100000,1007,1780,1008,68000,1009,0,10021,1000,1001,1000,10041,1000,1003,1000</v>
       </c>
       <c r="I6" s="7">
         <v>56000</v>
@@ -1471,7 +1469,9 @@
       <c r="P6" s="7">
         <v>68000</v>
       </c>
-      <c r="Q6" s="7"/>
+      <c r="Q6" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="R6" s="7">
         <v>1000</v>
       </c>
@@ -1484,9 +1484,8 @@
       <c r="U6" s="7">
         <v>1000</v>
       </c>
-      <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="2:22">
+    <row r="7" spans="2:21">
       <c r="B7" s="2">
         <v>1002</v>
       </c>
@@ -1494,20 +1493,20 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" ref="H7:H18" si="0">_xlfn.TEXTJOIN(",",TRUE,,I$4,I7,J$4,J7,K$4,K7,L$4,L7,M$4,M7,N$4,N7,O$4,O7,P$4,P7,Q$4,Q7,R$4,R7,S$4,S7,T$4,T7,U$4,U7)</f>
-        <v>1010,56000,1011,30000,1012,-138000,1000,0,1005,500,1006,0,1007,500,1008,30000,1009,10021,100,1001,100,10041,100,1003,100</v>
+        <v>1010,56000,1011,30000,1012,-138000,1000,0,1005,500,1006,0,1007,500,1008,30000,1009,0,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="I7" s="7">
         <v>56000</v>
@@ -1533,7 +1532,9 @@
       <c r="P7" s="7">
         <v>30000</v>
       </c>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="R7" s="7">
         <v>100</v>
       </c>
@@ -1546,9 +1547,8 @@
       <c r="U7" s="7">
         <v>100</v>
       </c>
-      <c r="V7" s="7"/>
     </row>
-    <row r="8" spans="2:22">
+    <row r="8" spans="2:21">
       <c r="B8" s="2">
         <v>1003</v>
       </c>
@@ -1556,20 +1556,20 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1010,58740,1011,29090,1012,-148001,1000,0,1005,500,1006,0,1007,500,1008,30000,1009,10021,100,1001,100,10041,100,1003,100</v>
+        <v>1010,58740,1011,29090,1012,-148001,1000,0,1005,500,1006,0,1007,500,1008,30000,1009,0,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="I8" s="7">
         <v>58740</v>
@@ -1595,7 +1595,9 @@
       <c r="P8" s="7">
         <v>30000</v>
       </c>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="R8" s="7">
         <v>100</v>
       </c>
@@ -1608,9 +1610,8 @@
       <c r="U8" s="7">
         <v>100</v>
       </c>
-      <c r="V8" s="7"/>
     </row>
-    <row r="9" spans="2:22">
+    <row r="9" spans="2:21">
       <c r="B9" s="2">
         <v>1004</v>
       </c>
@@ -1618,16 +1619,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1672,9 +1673,8 @@
       <c r="U9" s="7">
         <v>100</v>
       </c>
-      <c r="V9" s="7"/>
     </row>
-    <row r="10" spans="2:22">
+    <row r="10" spans="2:21">
       <c r="B10" s="2">
         <v>1005</v>
       </c>
@@ -1682,16 +1682,16 @@
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1736,9 +1736,8 @@
       <c r="U10" s="7">
         <v>100</v>
       </c>
-      <c r="V10" s="7"/>
     </row>
-    <row r="11" spans="2:22">
+    <row r="11" spans="2:21">
       <c r="B11" s="2">
         <v>1006</v>
       </c>
@@ -1746,13 +1745,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>36</v>
@@ -1800,9 +1799,8 @@
       <c r="U11" s="7">
         <v>100</v>
       </c>
-      <c r="V11" s="7"/>
     </row>
-    <row r="12" spans="2:22">
+    <row r="12" spans="2:21">
       <c r="B12" s="2">
         <v>1007</v>
       </c>
@@ -1810,16 +1808,16 @@
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1864,9 +1862,8 @@
       <c r="U12" s="7">
         <v>100</v>
       </c>
-      <c r="V12" s="7"/>
     </row>
-    <row r="13" spans="2:22">
+    <row r="13" spans="2:21">
       <c r="B13" s="2">
         <v>1008</v>
       </c>
@@ -1874,16 +1871,16 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1928,9 +1925,8 @@
       <c r="U13" s="7">
         <v>100</v>
       </c>
-      <c r="V13" s="7"/>
     </row>
-    <row r="14" spans="2:22">
+    <row r="14" spans="2:21">
       <c r="B14" s="2">
         <v>1009</v>
       </c>
@@ -1938,16 +1934,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1992,9 +1988,8 @@
       <c r="U14" s="7">
         <v>100</v>
       </c>
-      <c r="V14" s="7"/>
     </row>
-    <row r="15" spans="2:22">
+    <row r="15" spans="2:21">
       <c r="B15" s="2">
         <v>1010</v>
       </c>
@@ -2002,16 +1997,16 @@
         <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2056,9 +2051,8 @@
       <c r="U15" s="7">
         <v>100</v>
       </c>
-      <c r="V15" s="7"/>
     </row>
-    <row r="16" spans="2:22">
+    <row r="16" spans="2:21">
       <c r="B16" s="2">
         <v>1011</v>
       </c>
@@ -2066,16 +2060,16 @@
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2120,9 +2114,8 @@
       <c r="U16" s="7">
         <v>100</v>
       </c>
-      <c r="V16" s="7"/>
     </row>
-    <row r="17" spans="2:22">
+    <row r="17" spans="2:21">
       <c r="B17" s="2">
         <v>1012</v>
       </c>
@@ -2130,16 +2123,16 @@
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2184,9 +2177,8 @@
       <c r="U17" s="7">
         <v>100</v>
       </c>
-      <c r="V17" s="7"/>
     </row>
-    <row r="18" spans="2:22">
+    <row r="18" spans="2:21">
       <c r="B18" s="2">
         <v>1013</v>
       </c>
@@ -2194,16 +2186,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2248,7 +2240,6 @@
       <c r="U18" s="7">
         <v>100</v>
       </c>
-      <c r="V18" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/Unit.xlsx
+++ b/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/Unit.xlsx
@@ -85,19 +85,19 @@
     <t>出生Z坐标</t>
   </si>
   <si>
-    <t>速度</t>
-  </si>
-  <si>
-    <t>半径</t>
-  </si>
-  <si>
-    <t>视野距离</t>
-  </si>
-  <si>
-    <t>身高</t>
-  </si>
-  <si>
-    <t>体重</t>
+    <t>速度Base</t>
+  </si>
+  <si>
+    <t>半径Base</t>
+  </si>
+  <si>
+    <t>AOIBase</t>
+  </si>
+  <si>
+    <t>身高Base</t>
+  </si>
+  <si>
+    <t>体重Base</t>
   </si>
   <si>
     <t>AI</t>
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
@@ -1170,11 +1170,12 @@
     <col min="6" max="6" width="20.7522123893805" customWidth="1"/>
     <col min="7" max="7" width="13.8761061946903" customWidth="1"/>
     <col min="8" max="8" width="112.87610619469" customWidth="1"/>
-    <col min="9" max="9" width="10.3008849557522" customWidth="1"/>
+    <col min="9" max="9" width="9.55752212389381" customWidth="1"/>
     <col min="10" max="10" width="7.84070796460177" customWidth="1"/>
     <col min="11" max="11" width="6.84955752212389" customWidth="1"/>
+    <col min="14" max="14" width="12.6194690265487" customWidth="1"/>
     <col min="18" max="18" width="10.5575221238938" customWidth="1"/>
-    <col min="20" max="20" width="9.50442477876106" customWidth="1"/>
+    <col min="20" max="20" width="11.2212389380531" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:21">
@@ -1327,19 +1328,19 @@
         <v>1012</v>
       </c>
       <c r="L4" s="5">
-        <v>1000</v>
+        <v>10001</v>
       </c>
       <c r="M4" s="6">
-        <v>1005</v>
+        <v>10051</v>
       </c>
       <c r="N4" s="5">
-        <v>1006</v>
+        <v>10061</v>
       </c>
       <c r="O4" s="6">
-        <v>1007</v>
+        <v>10071</v>
       </c>
       <c r="P4" s="6">
-        <v>1008</v>
+        <v>10081</v>
       </c>
       <c r="Q4" s="6">
         <v>1009</v>
@@ -1443,7 +1444,7 @@
       </c>
       <c r="H6" s="2" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,,I$4,I6,J$4,J6,K$4,K6,L$4,L6,M$4,M6,N$4,N6,O$4,O6,P$4,P6,Q$4,Q6,R$4,R6,S$4,S6,T$4,T6,U$4,U6)</f>
-        <v>1010,56000,1011,29000,1012,-136000,1000,6000,1005,500,1006,100000,1007,1780,1008,68000,1009,0,10021,1000,1001,1000,10041,1000,1003,1000</v>
+        <v>1010,56000,1011,29000,1012,-136000,10001,6000,10051,500,10061,100000,10071,1780,10081,68000,1009,0,10021,1000,1001,1000,10041,1000,1003,1000</v>
       </c>
       <c r="I6" s="7">
         <v>56000</v>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" ref="H7:H18" si="0">_xlfn.TEXTJOIN(",",TRUE,,I$4,I7,J$4,J7,K$4,K7,L$4,L7,M$4,M7,N$4,N7,O$4,O7,P$4,P7,Q$4,Q7,R$4,R7,S$4,S7,T$4,T7,U$4,U7)</f>
-        <v>1010,56000,1011,30000,1012,-138000,1000,0,1005,500,1006,0,1007,500,1008,30000,1009,0,10021,100,1001,100,10041,100,1003,100</v>
+        <v>1010,56000,1011,30000,1012,-138000,10001,0,10051,500,10061,0,10071,500,10081,30000,1009,0,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="I7" s="7">
         <v>56000</v>
@@ -1569,7 +1570,7 @@
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1010,58740,1011,29090,1012,-148001,1000,0,1005,500,1006,0,1007,500,1008,30000,1009,0,10021,100,1001,100,10041,100,1003,100</v>
+        <v>1010,58740,1011,29090,1012,-148001,10001,0,10051,500,10061,0,10071,500,10081,30000,1009,0,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="I8" s="7">
         <v>58740</v>
@@ -1632,7 +1633,7 @@
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1010,21600,1011,26800,1012,-58702,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
+        <v>1010,21600,1011,26800,1012,-58702,10001,2000,10051,500,10061,10000,10071,500,10081,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="I9" s="7">
         <v>21600</v>
@@ -1695,7 +1696,7 @@
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1010,56000,1011,25180,1012,-23633,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
+        <v>1010,56000,1011,25180,1012,-23633,10001,2000,10051,500,10061,10000,10071,500,10081,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="I10" s="7">
         <v>56000</v>
@@ -1758,7 +1759,7 @@
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1010,36310,1011,25180,1012,-23634,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
+        <v>1010,36310,1011,25180,1012,-23634,10001,2000,10051,500,10061,10000,10071,500,10081,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="I11" s="7">
         <v>36310</v>
@@ -1821,7 +1822,7 @@
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1010,67170,1011,25180,1012,-40495,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
+        <v>1010,67170,1011,25180,1012,-40495,10001,2000,10051,500,10061,10000,10071,500,10081,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="I12" s="7">
         <v>67170</v>
@@ -1884,7 +1885,7 @@
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1010,59600,1011,25800,1012,-87866,1000,2000,1005,500,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
+        <v>1010,59600,1011,25800,1012,-87866,10001,2000,10051,500,10061,10000,10071,500,10081,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="I13" s="7">
         <v>59600</v>
@@ -1947,7 +1948,7 @@
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1010,58740,1011,28100,1012,-141407,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
+        <v>1010,58740,1011,28100,1012,-141407,10001,2000,10051,2000,10061,10000,10071,500,10081,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="I14" s="7">
         <v>58740</v>
@@ -2010,7 +2011,7 @@
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1010,58740,1011,28100,1012,-130408,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
+        <v>1010,58740,1011,28100,1012,-130408,10001,2000,10051,2000,10061,10000,10071,500,10081,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="I15" s="7">
         <v>58740</v>
@@ -2073,7 +2074,7 @@
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1010,67480,1011,28850,1012,-130409,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
+        <v>1010,67480,1011,28850,1012,-130409,10001,2000,10051,2000,10061,10000,10071,500,10081,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="I16" s="7">
         <v>67480</v>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1010,67480,1011,27510,1012,-34791,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
+        <v>1010,67480,1011,27510,1012,-34791,10001,2000,10051,2000,10061,10000,10071,500,10081,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="I17" s="7">
         <v>67480</v>
@@ -2199,7 +2200,7 @@
       </c>
       <c r="H18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1010,67480,1011,25900,1012,-93811,1000,2000,1005,2000,1006,10000,1007,500,1008,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
+        <v>1010,67480,1011,25900,1012,-93811,10001,2000,10051,2000,10061,10000,10071,500,10081,30000,1009,3,10021,100,1001,100,10041,100,1003,100</v>
       </c>
       <c r="I18" s="7">
         <v>67480</v>

--- a/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/Unit.xlsx
+++ b/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/Unit.xlsx
@@ -190,9 +190,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -216,99 +216,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -325,14 +234,112 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,14 +354,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,13 +375,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,55 +519,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,109 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,26 +566,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -600,30 +580,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,6 +609,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -666,16 +646,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,8 +1156,8 @@
   <sheetPr/>
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>

--- a/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/Unit.xlsx
+++ b/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/Unit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -22,48 +22,51 @@
     <t>Id</t>
   </si>
   <si>
+    <t>UnitType</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>head_icon</t>
+  </si>
+  <si>
+    <t>class_type</t>
+  </si>
+  <si>
+    <t>KV</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>EClassType</t>
+  </si>
+  <si>
+    <t>map,int,long</t>
+  </si>
+  <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>head_icon</t>
-  </si>
-  <si>
-    <t>class_type</t>
-  </si>
-  <si>
-    <t>KV</t>
-  </si>
-  <si>
-    <t>##type</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>EClassType</t>
-  </si>
-  <si>
-    <t>map,int,long</t>
-  </si>
-  <si>
-    <t>##group</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
     <t>名字</t>
   </si>
   <si>
@@ -115,6 +118,9 @@
     <t>MP</t>
   </si>
   <si>
+    <t>Player</t>
+  </si>
+  <si>
     <t>Mage</t>
   </si>
   <si>
@@ -134,6 +140,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>Monster</t>
   </si>
   <si>
     <t>TrainingDummy</t>
@@ -1179,15 +1188,15 @@
   <sheetPr/>
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4:AE4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
   <cols>
     <col min="1" max="1" width="12.5044247787611" customWidth="1"/>
     <col min="2" max="2" width="15.8761061946903" customWidth="1"/>
-    <col min="3" max="3" width="7.30088495575221" customWidth="1"/>
+    <col min="3" max="3" width="13.3451327433628" customWidth="1"/>
     <col min="4" max="4" width="16.6637168141593" customWidth="1"/>
     <col min="5" max="5" width="9.76106194690266" customWidth="1"/>
     <col min="6" max="6" width="20.7522123893805" customWidth="1"/>
@@ -1272,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -1362,70 +1371,70 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S4" s="11"/>
       <c r="T4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W4" s="11"/>
       <c r="X4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y4" s="12"/>
       <c r="Z4" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA4" s="11"/>
       <c r="AB4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AC4" s="12"/>
       <c r="AD4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AE4" s="11"/>
       <c r="AF4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG4" s="12"/>
     </row>
@@ -1433,29 +1442,29 @@
       <c r="B5" s="4">
         <v>1001</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5" s="4">
         <v>1010</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K5" s="8">
         <v>29000</v>
@@ -1500,7 +1509,7 @@
         <v>1009</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z5" s="10">
         <v>10021</v>
@@ -1531,20 +1540,20 @@
       <c r="B6" s="4">
         <v>1002</v>
       </c>
-      <c r="C6" s="4">
-        <v>2</v>
+      <c r="C6" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H6" s="4">
         <v>1010</v>
@@ -1553,7 +1562,7 @@
         <v>56000</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K6" s="8">
         <v>30000</v>
@@ -1598,7 +1607,7 @@
         <v>1009</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z6" s="10">
         <v>10021</v>
@@ -1629,20 +1638,20 @@
       <c r="B7" s="4">
         <v>1003</v>
       </c>
-      <c r="C7" s="4">
-        <v>2</v>
+      <c r="C7" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H7" s="4">
         <v>1010</v>
@@ -1651,7 +1660,7 @@
         <v>58740</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7" s="8">
         <v>29090</v>
@@ -1696,7 +1705,7 @@
         <v>1009</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z7" s="10">
         <v>10021</v>
@@ -1727,20 +1736,20 @@
       <c r="B8" s="4">
         <v>1004</v>
       </c>
-      <c r="C8" s="4">
-        <v>2</v>
+      <c r="C8" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H8" s="4">
         <v>1010</v>
@@ -1749,7 +1758,7 @@
         <v>21600</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K8" s="8">
         <v>26800</v>
@@ -1825,20 +1834,20 @@
       <c r="B9" s="4">
         <v>1005</v>
       </c>
-      <c r="C9" s="4">
-        <v>2</v>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H9" s="4">
         <v>1010</v>
@@ -1847,7 +1856,7 @@
         <v>56000</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K9" s="8">
         <v>25180</v>
@@ -1923,20 +1932,20 @@
       <c r="B10" s="4">
         <v>1006</v>
       </c>
-      <c r="C10" s="4">
-        <v>2</v>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H10" s="4">
         <v>1010</v>
@@ -1945,7 +1954,7 @@
         <v>36310</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K10" s="8">
         <v>25180</v>
@@ -2021,20 +2030,20 @@
       <c r="B11" s="4">
         <v>1007</v>
       </c>
-      <c r="C11" s="4">
-        <v>2</v>
+      <c r="C11" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H11" s="4">
         <v>1010</v>
@@ -2043,7 +2052,7 @@
         <v>67170</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K11" s="8">
         <v>25180</v>
@@ -2119,20 +2128,20 @@
       <c r="B12" s="4">
         <v>1008</v>
       </c>
-      <c r="C12" s="4">
-        <v>2</v>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="G12" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H12" s="4">
         <v>1010</v>
@@ -2141,7 +2150,7 @@
         <v>59600</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K12" s="8">
         <v>25800</v>
@@ -2217,20 +2226,20 @@
       <c r="B13" s="4">
         <v>1009</v>
       </c>
-      <c r="C13" s="4">
-        <v>2</v>
+      <c r="C13" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H13" s="4">
         <v>1010</v>
@@ -2239,7 +2248,7 @@
         <v>58740</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K13" s="8">
         <v>28100</v>
@@ -2315,20 +2324,20 @@
       <c r="B14" s="4">
         <v>1010</v>
       </c>
-      <c r="C14" s="4">
-        <v>2</v>
+      <c r="C14" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H14" s="4">
         <v>1010</v>
@@ -2337,7 +2346,7 @@
         <v>58740</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K14" s="8">
         <v>28100</v>
@@ -2413,20 +2422,20 @@
       <c r="B15" s="4">
         <v>1011</v>
       </c>
-      <c r="C15" s="4">
-        <v>2</v>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H15" s="4">
         <v>1010</v>
@@ -2435,7 +2444,7 @@
         <v>67480</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K15" s="8">
         <v>28850</v>
@@ -2511,20 +2520,20 @@
       <c r="B16" s="4">
         <v>1012</v>
       </c>
-      <c r="C16" s="4">
-        <v>2</v>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H16" s="4">
         <v>1010</v>
@@ -2533,7 +2542,7 @@
         <v>67480</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K16" s="8">
         <v>27510</v>
@@ -2609,20 +2618,20 @@
       <c r="B17" s="4">
         <v>1013</v>
       </c>
-      <c r="C17" s="4">
-        <v>2</v>
+      <c r="C17" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H17" s="4">
         <v>1010</v>
@@ -2631,7 +2640,7 @@
         <v>67480</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K17" s="8">
         <v>25900</v>
